--- a/Assets/Resources/DP漢字画像/中学相当漢字問題データ.xlsx
+++ b/Assets/Resources/DP漢字画像/中学相当漢字問題データ.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\KanjiTrain2\Assets\Resources\DP漢字画像\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE5A67A-7E37-4053-97FA-78C40FC9D8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="シート1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="シート1 のコピー" sheetId="2" r:id="rId5"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート1 のコピー" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_4AADAF64_B020_41CE_8D67_3FD5816337AA_.wvu.FilterData">'シート1 のコピー'!$D$13</definedName>
+    <definedName name="Z_4AADAF64_B020_41CE_8D67_3FD5816337AA_.wvu.FilterData" localSheetId="1" hidden="1">'シート1 のコピー'!$D$13</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4AADAF64-B020-41CE-8D67-3FD5816337AA}" name="フィルタ 1"/>
+    <customWorkbookView name="フィルタ 1" guid="{4AADAF64-B020-41CE-8D67-3FD5816337AA}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -541,27 +551,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -569,7 +588,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -603,7 +622,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -617,89 +642,71 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -889,27 +896,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.25"/>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
-    <col customWidth="1" min="5" max="5" width="7.0"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -922,9 +934,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -935,9 +947,9 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -948,9 +960,9 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -961,9 +973,9 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -974,9 +986,9 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -987,9 +999,9 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1000,9 +1012,9 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1013,9 +1025,9 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -1026,9 +1038,9 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -1039,9 +1051,9 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -1052,9 +1064,9 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -1065,9 +1077,9 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1.0</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1078,9 +1090,9 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -1091,9 +1103,9 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -1104,9 +1116,9 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
@@ -1117,9 +1129,9 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -1130,9 +1142,9 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -1143,9 +1155,9 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
@@ -1156,9 +1168,9 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
@@ -1169,9 +1181,9 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>41</v>
@@ -1182,9 +1194,9 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>43</v>
@@ -1195,9 +1207,9 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
@@ -1208,9 +1220,9 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
@@ -1221,9 +1233,9 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
@@ -1234,9 +1246,9 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
@@ -1247,9 +1259,9 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -1260,9 +1272,9 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>55</v>
@@ -1273,9 +1285,9 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
@@ -1286,9 +1298,9 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
@@ -1299,9 +1311,9 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>61</v>
@@ -1314,9 +1326,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
@@ -1329,9 +1341,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>66</v>
@@ -1344,9 +1356,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>68</v>
@@ -1359,9 +1371,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
@@ -1374,9 +1386,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>72</v>
@@ -1389,9 +1401,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>74</v>
@@ -1404,9 +1416,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>76</v>
@@ -1419,9 +1431,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>78</v>
@@ -1434,9 +1446,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>80</v>
@@ -1449,9 +1461,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>82</v>
@@ -1464,9 +1476,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>84</v>
@@ -1479,9 +1491,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>86</v>
@@ -1494,9 +1506,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>88</v>
@@ -1509,9 +1521,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>90</v>
@@ -1525,9 +1537,9 @@
       </c>
       <c r="F45" s="12"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>92</v>
@@ -1540,9 +1552,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>94</v>
@@ -1555,9 +1567,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>96</v>
@@ -1570,9 +1582,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>98</v>
@@ -1586,9 +1598,9 @@
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>100</v>
@@ -1601,9 +1613,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>102</v>
@@ -1616,9 +1628,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>104</v>
@@ -1631,9 +1643,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>106</v>
@@ -1646,9 +1658,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>108</v>
@@ -1661,9 +1673,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>110</v>
@@ -1676,9 +1688,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>112</v>
@@ -1691,9 +1703,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>114</v>
@@ -1706,9 +1718,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>116</v>
@@ -1722,9 +1734,9 @@
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>118</v>
@@ -1737,9 +1749,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>120</v>
@@ -1753,25 +1765,28 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.25"/>
-    <col customWidth="1" min="5" max="5" width="17.63"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -1788,9 +1803,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1801,9 +1816,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1814,9 +1829,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1827,9 +1842,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1840,9 +1855,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1853,9 +1868,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1866,9 +1881,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1879,9 +1894,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -1892,9 +1907,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1905,9 +1920,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -1918,9 +1933,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -1931,9 +1946,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -1944,9 +1959,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
@@ -1957,9 +1972,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>132</v>
@@ -1970,9 +1985,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>134</v>
@@ -1983,9 +1998,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
@@ -1996,9 +2011,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
@@ -2009,9 +2024,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -2022,9 +2037,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
@@ -2035,9 +2050,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -2048,9 +2063,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>136</v>
@@ -2064,9 +2079,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>139</v>
@@ -2083,9 +2098,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
@@ -2099,9 +2114,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
@@ -2112,9 +2127,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>49</v>
@@ -2125,9 +2140,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
@@ -2138,9 +2153,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
@@ -2151,9 +2166,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
@@ -2164,9 +2179,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>57</v>
@@ -2180,9 +2195,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>59</v>
@@ -2193,9 +2208,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
@@ -2206,9 +2221,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -2219,9 +2234,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>147</v>
@@ -2235,9 +2250,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>68</v>
@@ -2248,9 +2263,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
@@ -2261,9 +2276,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
@@ -2274,9 +2289,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>149</v>
@@ -2287,9 +2302,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>76</v>
@@ -2300,9 +2315,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>151</v>
@@ -2319,9 +2334,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>80</v>
@@ -2337,9 +2352,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>82</v>
@@ -2350,9 +2365,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -2363,9 +2378,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>86</v>
@@ -2376,9 +2391,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>88</v>
@@ -2389,9 +2404,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>90</v>
@@ -2402,9 +2417,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>159</v>
@@ -2415,9 +2430,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>161</v>
@@ -2431,9 +2446,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>164</v>
@@ -2444,9 +2459,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>98</v>
@@ -2457,9 +2472,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>167</v>
@@ -2470,9 +2485,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>102</v>
@@ -2483,9 +2498,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>104</v>
@@ -2496,9 +2511,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>106</v>
@@ -2512,9 +2527,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>108</v>
@@ -2528,9 +2543,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>169</v>
@@ -2541,9 +2556,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>112</v>
@@ -2554,9 +2569,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>114</v>
@@ -2567,9 +2582,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>171</v>
@@ -2581,9 +2596,9 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>118</v>
@@ -2594,9 +2609,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>120</v>
@@ -2610,9 +2625,11 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{4AADAF64-B020-41CE-8D67-3FD5816337AA}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$D$13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="D13" xr:uid="{CB3C8D2B-B743-47D6-AD63-44DD921763B3}"/>
     </customSheetView>
   </customSheetViews>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>